--- a/HCI201/Survey/Assess-Crucial-Question.xlsx
+++ b/HCI201/Survey/Assess-Crucial-Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY - ACADEMIC\FPT\CN7\Git-RoadKnight\doc-roadknignt\HCI201\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70D506-CA84-4D72-9341-BED28C7EFE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26642251-06DA-4EB9-890F-6E933325AA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,19 +78,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,8 +125,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +412,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +444,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -451,7 +455,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -463,7 +467,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f>PRODUCT(D2:G2)</f>
+        <f t="shared" ref="H2:H33" si="0">PRODUCT(D2:G2)</f>
         <v>9</v>
       </c>
     </row>
@@ -474,7 +478,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="2">
@@ -486,7 +490,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <f>PRODUCT(D3:G3)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -497,7 +501,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="2">
@@ -509,7 +513,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <f>PRODUCT(D4:G4)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -520,7 +524,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="2">
@@ -532,7 +536,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>PRODUCT(D5:G5)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -543,7 +547,7 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="2">
@@ -555,7 +559,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f>PRODUCT(D6:G6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -566,7 +570,7 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="2">
@@ -578,7 +582,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f>PRODUCT(D7:G7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -589,7 +593,7 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="2">
@@ -601,7 +605,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f>PRODUCT(D8:G8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -612,7 +616,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="2">
@@ -624,7 +628,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <f>PRODUCT(D9:G9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -635,7 +639,7 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="2">
@@ -647,7 +651,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <f>PRODUCT(D10:G10)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -658,7 +662,7 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="2">
@@ -670,7 +674,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <f>PRODUCT(D11:G11)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -681,7 +685,7 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="2">
@@ -693,7 +697,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <f>PRODUCT(D12:G12)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -704,7 +708,7 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="2">
@@ -716,7 +720,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <f>PRODUCT(D13:G13)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -727,7 +731,7 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="2">
@@ -739,7 +743,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <f>PRODUCT(D14:G14)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -750,7 +754,7 @@
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
       <c r="D15" s="2">
@@ -762,7 +766,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <f>PRODUCT(D15:G15)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -773,7 +777,7 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="2">
@@ -785,7 +789,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <f>PRODUCT(D16:G16)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -796,7 +800,7 @@
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="2">
@@ -808,7 +812,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <f>PRODUCT(D17:G17)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -819,7 +823,7 @@
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>17</v>
       </c>
       <c r="D18" s="2">
@@ -831,7 +835,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <f>PRODUCT(D18:G18)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -842,7 +846,7 @@
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>18</v>
       </c>
       <c r="D19" s="2">
@@ -854,7 +858,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <f>PRODUCT(D19:G19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -865,7 +869,7 @@
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>19</v>
       </c>
       <c r="D20" s="2">
@@ -877,7 +881,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <f>PRODUCT(D20:G20)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -888,7 +892,7 @@
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>20</v>
       </c>
       <c r="D21" s="2">
@@ -900,7 +904,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <f>PRODUCT(D21:G21)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -911,7 +915,7 @@
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
       <c r="D22" s="2">
@@ -923,7 +927,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <f>PRODUCT(D22:G22)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -934,7 +938,7 @@
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="2">
@@ -946,7 +950,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1">
-        <f>PRODUCT(D23:G23)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -957,7 +961,7 @@
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="2">
@@ -969,7 +973,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
-        <f>PRODUCT(D24:G24)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -980,7 +984,7 @@
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="2">
@@ -992,7 +996,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
-        <f>PRODUCT(D25:G25)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1003,7 +1007,7 @@
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="2">
@@ -1015,7 +1019,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
-        <f>PRODUCT(D26:G26)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -1026,7 +1030,7 @@
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="2">
@@ -1038,7 +1042,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <f>PRODUCT(D27:G27)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1049,7 +1053,7 @@
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="2">
@@ -1061,7 +1065,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <f>PRODUCT(D28:G28)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1072,7 +1076,7 @@
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>7</v>
       </c>
       <c r="D29" s="2">
@@ -1084,7 +1088,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <f>PRODUCT(D29:G29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1095,7 +1099,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>8</v>
       </c>
       <c r="D30" s="2">
@@ -1107,7 +1111,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <f>PRODUCT(D30:G30)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1118,7 +1122,7 @@
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>9</v>
       </c>
       <c r="D31" s="2">
@@ -1130,7 +1134,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <f>PRODUCT(D31:G31)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1141,7 +1145,7 @@
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>10</v>
       </c>
       <c r="D32" s="2">
@@ -1153,7 +1157,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1">
-        <f>PRODUCT(D32:G32)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1164,7 +1168,7 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>11</v>
       </c>
       <c r="D33" s="2">
@@ -1176,7 +1180,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
-        <f>PRODUCT(D33:G33)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1187,7 +1191,7 @@
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>12</v>
       </c>
       <c r="D34" s="2">
@@ -1199,7 +1203,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <f>PRODUCT(D34:G34)</f>
+        <f t="shared" ref="H34:H65" si="1">PRODUCT(D34:G34)</f>
         <v>15</v>
       </c>
     </row>
@@ -1210,7 +1214,7 @@
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>13</v>
       </c>
       <c r="D35" s="2">
@@ -1222,7 +1226,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1">
-        <f>PRODUCT(D35:G35)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1233,7 +1237,7 @@
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>14</v>
       </c>
       <c r="D36" s="2">
@@ -1245,7 +1249,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
-        <f>PRODUCT(D36:G36)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1256,7 +1260,7 @@
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>15</v>
       </c>
       <c r="D37" s="2">
@@ -1268,7 +1272,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
-        <f>PRODUCT(D37:G37)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1279,7 +1283,7 @@
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>16</v>
       </c>
       <c r="D38" s="2">
@@ -1291,7 +1295,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
-        <f>PRODUCT(D38:G38)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1302,7 +1306,7 @@
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="2">
@@ -1314,7 +1318,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
-        <f>PRODUCT(D39:G39)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1325,7 +1329,7 @@
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>2</v>
       </c>
       <c r="D40" s="2">
@@ -1337,7 +1341,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1">
-        <f>PRODUCT(D40:G40)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1348,7 +1352,7 @@
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="2">
@@ -1360,7 +1364,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
-        <f>PRODUCT(D41:G41)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1371,7 +1375,7 @@
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="2">
@@ -1383,7 +1387,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
-        <f>PRODUCT(D42:G42)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -1394,7 +1398,7 @@
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>5</v>
       </c>
       <c r="D43" s="2">
@@ -1406,7 +1410,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
-        <f>PRODUCT(D43:G43)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1417,7 +1421,7 @@
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>6</v>
       </c>
       <c r="D44" s="2">
@@ -1429,7 +1433,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
-        <f>PRODUCT(D44:G44)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1440,7 +1444,7 @@
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>7</v>
       </c>
       <c r="D45" s="2">
@@ -1452,7 +1456,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
-        <f>PRODUCT(D45:G45)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -1463,7 +1467,7 @@
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>8</v>
       </c>
       <c r="D46" s="2">
@@ -1475,7 +1479,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
-        <f>PRODUCT(D46:G46)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1486,7 +1490,7 @@
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>9</v>
       </c>
       <c r="D47" s="2">
@@ -1498,7 +1502,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
-        <f>PRODUCT(D47:G47)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -1509,7 +1513,7 @@
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>10</v>
       </c>
       <c r="D48" s="2">
@@ -1521,7 +1525,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1">
-        <f>PRODUCT(D48:G48)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -1532,7 +1536,7 @@
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>11</v>
       </c>
       <c r="D49" s="2">
@@ -1544,7 +1548,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
-        <f>PRODUCT(D49:G49)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1555,7 +1559,7 @@
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>12</v>
       </c>
       <c r="D50" s="2">
@@ -1567,7 +1571,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
-        <f>PRODUCT(D50:G50)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1578,7 +1582,7 @@
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>13</v>
       </c>
       <c r="D51" s="2">
@@ -1590,7 +1594,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
-        <f>PRODUCT(D51:G51)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1601,7 +1605,7 @@
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>14</v>
       </c>
       <c r="D52" s="2">
@@ -1613,7 +1617,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
-        <f>PRODUCT(D52:G52)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -1621,6 +1625,18 @@
   <sortState ref="A2:H52">
     <sortCondition ref="A8"/>
   </sortState>
+  <conditionalFormatting sqref="H2:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HCI201/Survey/Assess-Crucial-Question.xlsx
+++ b/HCI201/Survey/Assess-Crucial-Question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY - ACADEMIC\FPT\CN7\Git-RoadKnight\doc-roadknignt\HCI201\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26642251-06DA-4EB9-890F-6E933325AA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4E5D4-69CB-4AF0-8BDD-CB6FE95930B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9735" yWindow="240" windowWidth="10140" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -122,11 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,17 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="7" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -467,7 +478,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H33" si="0">PRODUCT(D2:G2)</f>
+        <f>PRODUCT(D2:G2)</f>
         <v>9</v>
       </c>
     </row>
@@ -475,7 +486,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -490,7 +501,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D3:G3)</f>
         <v>25</v>
       </c>
     </row>
@@ -498,7 +509,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
@@ -513,7 +524,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D4:G4)</f>
         <v>16</v>
       </c>
     </row>
@@ -536,7 +547,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D5:G5)</f>
         <v>15</v>
       </c>
     </row>
@@ -559,7 +570,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D6:G6)</f>
         <v>4</v>
       </c>
     </row>
@@ -567,7 +578,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3">
@@ -582,7 +593,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D7:G7)</f>
         <v>16</v>
       </c>
     </row>
@@ -605,7 +616,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D8:G8)</f>
         <v>8</v>
       </c>
     </row>
@@ -628,7 +639,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D9:G9)</f>
         <v>15</v>
       </c>
     </row>
@@ -636,7 +647,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="3">
@@ -651,7 +662,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D10:G10)</f>
         <v>25</v>
       </c>
     </row>
@@ -659,7 +670,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3">
@@ -674,7 +685,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D11:G11)</f>
         <v>20</v>
       </c>
     </row>
@@ -682,7 +693,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3">
@@ -697,7 +708,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D12:G12)</f>
         <v>16</v>
       </c>
     </row>
@@ -720,7 +731,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D13:G13)</f>
         <v>10</v>
       </c>
     </row>
@@ -743,7 +754,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D14:G14)</f>
         <v>15</v>
       </c>
     </row>
@@ -766,7 +777,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D15:G15)</f>
         <v>9</v>
       </c>
     </row>
@@ -789,7 +800,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D16:G16)</f>
         <v>12</v>
       </c>
     </row>
@@ -797,7 +808,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3">
@@ -812,7 +823,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D17:G17)</f>
         <v>20</v>
       </c>
     </row>
@@ -820,7 +831,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3">
@@ -835,7 +846,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D18:G18)</f>
         <v>20</v>
       </c>
     </row>
@@ -843,7 +854,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3">
@@ -858,7 +869,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D19:G19)</f>
         <v>20</v>
       </c>
     </row>
@@ -881,7 +892,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D20:G20)</f>
         <v>15</v>
       </c>
     </row>
@@ -889,7 +900,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3">
@@ -904,7 +915,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D21:G21)</f>
         <v>20</v>
       </c>
     </row>
@@ -912,7 +923,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3">
@@ -927,7 +938,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D22:G22)</f>
         <v>25</v>
       </c>
     </row>
@@ -950,7 +961,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D23:G23)</f>
         <v>8</v>
       </c>
     </row>
@@ -973,7 +984,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D24:G24)</f>
         <v>10</v>
       </c>
     </row>
@@ -981,7 +992,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3">
@@ -996,7 +1007,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D25:G25)</f>
         <v>15</v>
       </c>
     </row>
@@ -1004,7 +1015,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
@@ -1019,7 +1030,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D26:G26)</f>
         <v>25</v>
       </c>
     </row>
@@ -1042,7 +1053,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D27:G27)</f>
         <v>6</v>
       </c>
     </row>
@@ -1065,7 +1076,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D28:G28)</f>
         <v>9</v>
       </c>
     </row>
@@ -1088,7 +1099,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D29:G29)</f>
         <v>4</v>
       </c>
     </row>
@@ -1111,7 +1122,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D30:G30)</f>
         <v>6</v>
       </c>
     </row>
@@ -1134,7 +1145,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D31:G31)</f>
         <v>12</v>
       </c>
     </row>
@@ -1157,7 +1168,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D32:G32)</f>
         <v>10</v>
       </c>
     </row>
@@ -1165,7 +1176,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3">
@@ -1180,7 +1191,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(D33:G33)</f>
         <v>20</v>
       </c>
     </row>
@@ -1188,7 +1199,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="3">
@@ -1203,7 +1214,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H65" si="1">PRODUCT(D34:G34)</f>
+        <f>PRODUCT(D34:G34)</f>
         <v>15</v>
       </c>
     </row>
@@ -1211,7 +1222,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="3">
@@ -1226,7 +1237,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D35:G35)</f>
         <v>15</v>
       </c>
     </row>
@@ -1234,7 +1245,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3">
@@ -1249,7 +1260,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D36:G36)</f>
         <v>20</v>
       </c>
     </row>
@@ -1272,7 +1283,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D37:G37)</f>
         <v>6</v>
       </c>
     </row>
@@ -1280,7 +1291,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3">
@@ -1295,7 +1306,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D38:G38)</f>
         <v>15</v>
       </c>
     </row>
@@ -1318,7 +1329,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D39:G39)</f>
         <v>8</v>
       </c>
     </row>
@@ -1341,7 +1352,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D40:G40)</f>
         <v>15</v>
       </c>
     </row>
@@ -1364,7 +1375,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D41:G41)</f>
         <v>10</v>
       </c>
     </row>
@@ -1387,7 +1398,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D42:G42)</f>
         <v>15</v>
       </c>
     </row>
@@ -1410,7 +1421,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D43:G43)</f>
         <v>10</v>
       </c>
     </row>
@@ -1418,7 +1429,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="3">
@@ -1433,7 +1444,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D44:G44)</f>
         <v>20</v>
       </c>
     </row>
@@ -1456,7 +1467,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D45:G45)</f>
         <v>16</v>
       </c>
     </row>
@@ -1464,7 +1475,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="3">
@@ -1479,7 +1490,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D46:G46)</f>
         <v>20</v>
       </c>
     </row>
@@ -1502,7 +1513,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D47:G47)</f>
         <v>12</v>
       </c>
     </row>
@@ -1510,7 +1521,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="3">
@@ -1525,7 +1536,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D48:G48)</f>
         <v>25</v>
       </c>
     </row>
@@ -1548,7 +1559,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D49:G49)</f>
         <v>8</v>
       </c>
     </row>
@@ -1571,7 +1582,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D50:G50)</f>
         <v>2</v>
       </c>
     </row>
@@ -1594,7 +1605,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D51:G51)</f>
         <v>6</v>
       </c>
     </row>
@@ -1617,13 +1628,96 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
+        <f>PRODUCT(D52:G52)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <f>COUNTIF(D$2:D$52,$C54)</f>
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <f>COUNTIF(E$2:E$52,$C54)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="5">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:E58" si="0">COUNTIF(D$2:D$52,$C55)</f>
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f>SUM(D54:D58)</f>
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:G60" si="1">SUM(E54:E58)</f>
+        <v>51</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H52">
-    <sortCondition ref="A8"/>
+    <sortCondition ref="A3"/>
   </sortState>
   <conditionalFormatting sqref="H2:H52">
     <cfRule type="colorScale" priority="1">

--- a/HCI201/Survey/Assess-Crucial-Question.xlsx
+++ b/HCI201/Survey/Assess-Crucial-Question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY - ACADEMIC\FPT\CN7\Git-RoadKnight\doc-roadknignt\HCI201\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4E5D4-69CB-4AF0-8BDD-CB6FE95930B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C36A2-7446-42C7-9512-AA2B2ACFB115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="240" windowWidth="10140" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,10 +476,12 @@
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
       <c r="H2" s="1">
-        <f>PRODUCT(D2:G2)</f>
-        <v>9</v>
+        <f>PRODUCT(D2:G2,E2)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -499,10 +501,12 @@
         <v>5</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
       <c r="H3" s="1">
-        <f>PRODUCT(D3:G3)</f>
-        <v>25</v>
+        <f>PRODUCT(D3:G3,E3)</f>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,17 +526,19 @@
         <v>4</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
       <c r="H4" s="1">
-        <f>PRODUCT(D4:G4)</f>
-        <v>16</v>
+        <f>PRODUCT(D4:G4,E4)</f>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
@@ -545,10 +551,12 @@
         <v>5</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
       <c r="H5" s="1">
-        <f>PRODUCT(D5:G5)</f>
-        <v>15</v>
+        <f>PRODUCT(D5:G5,E5)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,10 +576,12 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
       <c r="H6" s="1">
-        <f>PRODUCT(D6:G6)</f>
-        <v>4</v>
+        <f>PRODUCT(D6:G6,E6)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,10 +601,12 @@
         <v>4</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
       <c r="H7" s="1">
-        <f>PRODUCT(D7:G7)</f>
-        <v>16</v>
+        <f>PRODUCT(D7:G7,E7)</f>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -614,17 +626,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
       <c r="H8" s="1">
-        <f>PRODUCT(D8:G8)</f>
-        <v>8</v>
+        <f>PRODUCT(D8:G8,E8)</f>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3">
@@ -637,10 +651,12 @@
         <v>5</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
       <c r="H9" s="1">
-        <f>PRODUCT(D9:G9)</f>
-        <v>15</v>
+        <f>PRODUCT(D9:G9,E9)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,10 +676,12 @@
         <v>5</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
       <c r="H10" s="1">
-        <f>PRODUCT(D10:G10)</f>
-        <v>25</v>
+        <f>PRODUCT(D10:G10,E10)</f>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,10 +701,12 @@
         <v>5</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
       <c r="H11" s="1">
-        <f>PRODUCT(D11:G11)</f>
-        <v>20</v>
+        <f>PRODUCT(D11:G11,E11)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,10 +726,12 @@
         <v>4</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
       <c r="H12" s="1">
-        <f>PRODUCT(D12:G12)</f>
-        <v>16</v>
+        <f>PRODUCT(D12:G12,E12)</f>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,10 +751,12 @@
         <v>2</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
       <c r="H13" s="1">
-        <f>PRODUCT(D13:G13)</f>
-        <v>10</v>
+        <f>PRODUCT(D13:G13,E13)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,10 +776,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
       <c r="H14" s="1">
-        <f>PRODUCT(D14:G14)</f>
-        <v>15</v>
+        <f>PRODUCT(D14:G14,E14)</f>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,10 +801,12 @@
         <v>3</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
       <c r="H15" s="1">
-        <f>PRODUCT(D15:G15)</f>
-        <v>9</v>
+        <f>PRODUCT(D15:G15,E15)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,10 +826,12 @@
         <v>3</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
       <c r="H16" s="1">
-        <f>PRODUCT(D16:G16)</f>
-        <v>12</v>
+        <f>PRODUCT(D16:G16,E16)</f>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,10 +851,12 @@
         <v>4</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
       <c r="H17" s="1">
-        <f>PRODUCT(D17:G17)</f>
-        <v>20</v>
+        <f>PRODUCT(D17:G17,E17)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,10 +876,12 @@
         <v>4</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
       <c r="H18" s="1">
-        <f>PRODUCT(D18:G18)</f>
-        <v>20</v>
+        <f>PRODUCT(D18:G18,E18)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,17 +901,19 @@
         <v>4</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
       <c r="H19" s="1">
-        <f>PRODUCT(D19:G19)</f>
-        <v>20</v>
+        <f>PRODUCT(D19:G19,E19)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3">
@@ -890,10 +926,12 @@
         <v>5</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
       <c r="H20" s="1">
-        <f>PRODUCT(D20:G20)</f>
-        <v>15</v>
+        <f>PRODUCT(D20:G20,E20)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,10 +951,12 @@
         <v>4</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
       <c r="H21" s="1">
-        <f>PRODUCT(D21:G21)</f>
-        <v>20</v>
+        <f>PRODUCT(D21:G21,E21)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,10 +976,12 @@
         <v>5</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
       <c r="H22" s="1">
-        <f>PRODUCT(D22:G22)</f>
-        <v>25</v>
+        <f>PRODUCT(D22:G22,E22)</f>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,10 +1001,12 @@
         <v>4</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1">
-        <f>PRODUCT(D23:G23)</f>
-        <v>8</v>
+        <f>PRODUCT(D23:G23,E23)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,17 +1026,19 @@
         <v>2</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
       <c r="H24" s="1">
-        <f>PRODUCT(D24:G24)</f>
-        <v>10</v>
+        <f>PRODUCT(D24:G24,E24)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3">
@@ -1005,10 +1051,12 @@
         <v>5</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
       <c r="H25" s="1">
-        <f>PRODUCT(D25:G25)</f>
-        <v>15</v>
+        <f>PRODUCT(D25:G25,E25)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1028,10 +1076,12 @@
         <v>5</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
       <c r="H26" s="1">
-        <f>PRODUCT(D26:G26)</f>
-        <v>25</v>
+        <f>PRODUCT(D26:G26,E26)</f>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,10 +1101,12 @@
         <v>2</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
       <c r="H27" s="1">
-        <f>PRODUCT(D27:G27)</f>
-        <v>6</v>
+        <f>PRODUCT(D27:G27,E27)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1074,10 +1126,12 @@
         <v>3</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
       <c r="H28" s="1">
-        <f>PRODUCT(D28:G28)</f>
-        <v>9</v>
+        <f>PRODUCT(D28:G28,E28)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,10 +1151,12 @@
         <v>2</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
       <c r="H29" s="1">
-        <f>PRODUCT(D29:G29)</f>
-        <v>4</v>
+        <f>PRODUCT(D29:G29,E29)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1120,10 +1176,12 @@
         <v>3</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
       <c r="H30" s="1">
-        <f>PRODUCT(D30:G30)</f>
-        <v>6</v>
+        <f>PRODUCT(D30:G30,E30)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1143,10 +1201,12 @@
         <v>4</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
       <c r="H31" s="1">
-        <f>PRODUCT(D31:G31)</f>
-        <v>12</v>
+        <f>PRODUCT(D31:G31,E31)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,10 +1226,12 @@
         <v>2</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
       <c r="H32" s="1">
-        <f>PRODUCT(D32:G32)</f>
-        <v>10</v>
+        <f>PRODUCT(D32:G32,E32)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,10 +1251,12 @@
         <v>4</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
       <c r="H33" s="1">
-        <f>PRODUCT(D33:G33)</f>
-        <v>20</v>
+        <f>PRODUCT(D33:G33,E33)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1212,10 +1276,12 @@
         <v>3</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
       <c r="H34" s="1">
-        <f>PRODUCT(D34:G34)</f>
-        <v>15</v>
+        <f>PRODUCT(D34:G34,E34)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,10 +1301,12 @@
         <v>5</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
       <c r="H35" s="1">
-        <f>PRODUCT(D35:G35)</f>
-        <v>15</v>
+        <f>PRODUCT(D35:G35,E35)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,10 +1326,12 @@
         <v>5</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
       <c r="H36" s="1">
-        <f>PRODUCT(D36:G36)</f>
-        <v>20</v>
+        <f>PRODUCT(D36:G36,E36)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1281,10 +1351,12 @@
         <v>3</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
       <c r="H37" s="1">
-        <f>PRODUCT(D37:G37)</f>
-        <v>6</v>
+        <f>PRODUCT(D37:G37,E37)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,10 +1376,12 @@
         <v>3</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
       <c r="H38" s="1">
-        <f>PRODUCT(D38:G38)</f>
-        <v>15</v>
+        <f>PRODUCT(D38:G38,E38)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1327,10 +1401,12 @@
         <v>2</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
       <c r="H39" s="1">
-        <f>PRODUCT(D39:G39)</f>
-        <v>8</v>
+        <f>PRODUCT(D39:G39,E39)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,10 +1426,12 @@
         <v>3</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
       <c r="H40" s="1">
-        <f>PRODUCT(D40:G40)</f>
-        <v>15</v>
+        <f>PRODUCT(D40:G40,E40)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1373,10 +1451,12 @@
         <v>2</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
       <c r="H41" s="1">
-        <f>PRODUCT(D41:G41)</f>
-        <v>10</v>
+        <f>PRODUCT(D41:G41,E41)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,17 +1476,19 @@
         <v>3</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
       <c r="H42" s="1">
-        <f>PRODUCT(D42:G42)</f>
-        <v>15</v>
+        <f>PRODUCT(D42:G42,E42)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="3">
@@ -1419,10 +1501,12 @@
         <v>5</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
       <c r="H43" s="1">
-        <f>PRODUCT(D43:G43)</f>
-        <v>10</v>
+        <f>PRODUCT(D43:G43,E43)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1442,17 +1526,19 @@
         <v>5</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
       <c r="H44" s="1">
-        <f>PRODUCT(D44:G44)</f>
-        <v>20</v>
+        <f>PRODUCT(D44:G44,E44)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="3">
@@ -1465,10 +1551,12 @@
         <v>4</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
       <c r="H45" s="1">
-        <f>PRODUCT(D45:G45)</f>
-        <v>16</v>
+        <f>PRODUCT(D45:G45,E45)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,10 +1576,12 @@
         <v>4</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
       <c r="H46" s="1">
-        <f>PRODUCT(D46:G46)</f>
-        <v>20</v>
+        <f>PRODUCT(D46:G46,E46)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,10 +1601,12 @@
         <v>3</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
       <c r="H47" s="1">
-        <f>PRODUCT(D47:G47)</f>
-        <v>12</v>
+        <f>PRODUCT(D47:G47,E47)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,10 +1626,12 @@
         <v>5</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
       <c r="H48" s="1">
-        <f>PRODUCT(D48:G48)</f>
-        <v>25</v>
+        <f>PRODUCT(D48:G48,E48)</f>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,10 +1651,12 @@
         <v>2</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
       <c r="H49" s="1">
-        <f>PRODUCT(D49:G49)</f>
-        <v>8</v>
+        <f>PRODUCT(D49:G49,E49)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1580,10 +1676,12 @@
         <v>2</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
       <c r="H50" s="1">
-        <f>PRODUCT(D50:G50)</f>
-        <v>2</v>
+        <f>PRODUCT(D50:G50,E50)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1603,10 +1701,12 @@
         <v>2</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
       <c r="H51" s="1">
-        <f>PRODUCT(D51:G51)</f>
-        <v>6</v>
+        <f>PRODUCT(D51:G51,E51)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,10 +1726,12 @@
         <v>3</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>5</v>
+      </c>
       <c r="H52" s="1">
-        <f>PRODUCT(D52:G52)</f>
-        <v>12</v>
+        <f>PRODUCT(D52:G52,E52)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1644,18 +1746,34 @@
         <f>COUNTIF(E$2:E$52,$C54)</f>
         <v>14</v>
       </c>
+      <c r="F54">
+        <f t="shared" ref="F54:G54" si="0">COUNTIF(F$2:F$52,$C54)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="5">
         <v>4</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:E58" si="0">COUNTIF(D$2:D$52,$C55)</f>
+        <f t="shared" ref="D55:G58" si="1">COUNTIF(D$2:D$52,$C55)</f>
         <v>12</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,12 +1781,20 @@
         <v>3</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1676,12 +1802,20 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1689,12 +1823,20 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1703,21 +1845,21 @@
         <v>51</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:G60" si="1">SUM(E54:E58)</f>
+        <f t="shared" ref="E60:G60" si="2">SUM(E54:E58)</f>
         <v>51</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H52">
-    <sortCondition ref="A3"/>
+    <sortCondition ref="A8"/>
   </sortState>
   <conditionalFormatting sqref="H2:H52">
     <cfRule type="colorScale" priority="1">

--- a/HCI201/Survey/Assess-Crucial-Question.xlsx
+++ b/HCI201/Survey/Assess-Crucial-Question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY - ACADEMIC\FPT\CN7\Git-RoadKnight\doc-roadknignt\HCI201\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C36A2-7446-42C7-9512-AA2B2ACFB115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACAF190-088A-4FA1-8A5C-61A22B154F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +97,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -139,6 +151,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,12 +489,14 @@
       <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
       <c r="G2" s="1">
         <v>3</v>
       </c>
       <c r="H2" s="1">
-        <f>PRODUCT(D2:G2,E2)</f>
+        <f>PRODUCT(D2:G2)</f>
         <v>81</v>
       </c>
     </row>
@@ -500,12 +516,14 @@
       <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
       <c r="G3" s="1">
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <f>PRODUCT(D3:G3,E3)</f>
+        <f>PRODUCT(D3:G3)</f>
         <v>625</v>
       </c>
     </row>
@@ -525,13 +543,15 @@
       <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <f>PRODUCT(D4:G4,E4)</f>
-        <v>192</v>
+        <f>PRODUCT(D4:G4)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,12 +570,14 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <f>PRODUCT(D5:G5,E5)</f>
+        <f>PRODUCT(D5:G5)</f>
         <v>375</v>
       </c>
     </row>
@@ -575,13 +597,15 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f>PRODUCT(D6:G6,E6)</f>
-        <v>8</v>
+        <f>PRODUCT(D6:G6)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,13 +624,15 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1">
-        <f>PRODUCT(D7:G7,E7)</f>
-        <v>192</v>
+        <f>PRODUCT(D7:G7)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,12 +651,14 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <f>PRODUCT(D8:G8,E8)</f>
+        <f>PRODUCT(D8:G8)</f>
         <v>128</v>
       </c>
     </row>
@@ -650,12 +678,14 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
       <c r="G9" s="1">
         <v>5</v>
       </c>
       <c r="H9" s="1">
-        <f>PRODUCT(D9:G9,E9)</f>
+        <f>PRODUCT(D9:G9)</f>
         <v>375</v>
       </c>
     </row>
@@ -675,13 +705,15 @@
       <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
       <c r="G10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <f>PRODUCT(D10:G10,E10)</f>
-        <v>625</v>
+        <f>PRODUCT(D10:G10)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,13 +732,15 @@
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
       <c r="G11" s="1">
         <v>5</v>
       </c>
       <c r="H11" s="1">
-        <f>PRODUCT(D11:G11,E11)</f>
-        <v>500</v>
+        <f>PRODUCT(D11:G11)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,12 +759,14 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
       <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <f>PRODUCT(D12:G12,E12)</f>
+        <f>PRODUCT(D12:G12)</f>
         <v>192</v>
       </c>
     </row>
@@ -750,13 +786,15 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
       <c r="G13" s="1">
         <v>4</v>
       </c>
       <c r="H13" s="1">
-        <f>PRODUCT(D13:G13,E13)</f>
-        <v>80</v>
+        <f>PRODUCT(D13:G13)</f>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,12 +813,14 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <f>PRODUCT(D14:G14,E14)</f>
+        <f>PRODUCT(D14:G14)</f>
         <v>135</v>
       </c>
     </row>
@@ -800,13 +840,15 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
       <c r="G15" s="1">
         <v>3</v>
       </c>
       <c r="H15" s="1">
-        <f>PRODUCT(D15:G15,E15)</f>
-        <v>81</v>
+        <f>PRODUCT(D15:G15)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,13 +867,15 @@
       <c r="E16" s="2">
         <v>3</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
       <c r="G16" s="1">
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <f>PRODUCT(D16:G16,E16)</f>
-        <v>108</v>
+        <f>PRODUCT(D16:G16)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,13 +894,15 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
       <c r="H17" s="1">
-        <f>PRODUCT(D17:G17,E17)</f>
-        <v>400</v>
+        <f>PRODUCT(D17:G17)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,12 +921,14 @@
       <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
       <c r="G18" s="1">
         <v>4</v>
       </c>
       <c r="H18" s="1">
-        <f>PRODUCT(D18:G18,E18)</f>
+        <f>PRODUCT(D18:G18)</f>
         <v>320</v>
       </c>
     </row>
@@ -900,13 +948,15 @@
       <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
       <c r="G19" s="1">
         <v>5</v>
       </c>
       <c r="H19" s="1">
-        <f>PRODUCT(D19:G19,E19)</f>
-        <v>400</v>
+        <f>PRODUCT(D19:G19)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,13 +975,15 @@
       <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
       <c r="G20" s="1">
         <v>3</v>
       </c>
       <c r="H20" s="1">
-        <f>PRODUCT(D20:G20,E20)</f>
-        <v>225</v>
+        <f>PRODUCT(D20:G20)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,13 +1002,15 @@
       <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
       <c r="G21" s="1">
         <v>5</v>
       </c>
       <c r="H21" s="1">
-        <f>PRODUCT(D21:G21,E21)</f>
-        <v>400</v>
+        <f>PRODUCT(D21:G21)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,13 +1029,15 @@
       <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
       <c r="G22" s="1">
         <v>5</v>
       </c>
       <c r="H22" s="1">
-        <f>PRODUCT(D22:G22,E22)</f>
-        <v>625</v>
+        <f>PRODUCT(D22:G22)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,13 +1056,15 @@
       <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <f>PRODUCT(D23:G23,E23)</f>
-        <v>32</v>
+        <f>PRODUCT(D23:G23)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1025,13 +1083,15 @@
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
       <c r="H24" s="1">
-        <f>PRODUCT(D24:G24,E24)</f>
-        <v>100</v>
+        <f>PRODUCT(D24:G24)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,13 +1110,15 @@
       <c r="E25" s="2">
         <v>5</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" s="1">
-        <f>PRODUCT(D25:G25,E25)</f>
-        <v>150</v>
+        <f>PRODUCT(D25:G25)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1075,12 +1137,14 @@
       <c r="E26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
       <c r="G26" s="1">
         <v>5</v>
       </c>
       <c r="H26" s="1">
-        <f>PRODUCT(D26:G26,E26)</f>
+        <f>PRODUCT(D26:G26)</f>
         <v>625</v>
       </c>
     </row>
@@ -1100,13 +1164,15 @@
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="1">
-        <f>PRODUCT(D27:G27,E27)</f>
-        <v>24</v>
+        <f>PRODUCT(D27:G27)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1125,12 +1191,14 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
       <c r="G28" s="1">
         <v>3</v>
       </c>
       <c r="H28" s="1">
-        <f>PRODUCT(D28:G28,E28)</f>
+        <f>PRODUCT(D28:G28)</f>
         <v>81</v>
       </c>
     </row>
@@ -1150,13 +1218,15 @@
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
       <c r="G29" s="1">
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <f>PRODUCT(D29:G29,E29)</f>
-        <v>24</v>
+        <f>PRODUCT(D29:G29)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,20 +1245,22 @@
       <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
       <c r="G30" s="1">
         <v>3</v>
       </c>
       <c r="H30" s="1">
-        <f>PRODUCT(D30:G30,E30)</f>
-        <v>54</v>
+        <f>PRODUCT(D30:G30)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3">
@@ -1200,12 +1272,14 @@
       <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
       <c r="G31" s="1">
         <v>5</v>
       </c>
       <c r="H31" s="1">
-        <f>PRODUCT(D31:G31,E31)</f>
+        <f>PRODUCT(D31:G31)</f>
         <v>240</v>
       </c>
     </row>
@@ -1225,13 +1299,15 @@
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
       <c r="G32" s="1">
         <v>3</v>
       </c>
       <c r="H32" s="1">
-        <f>PRODUCT(D32:G32,E32)</f>
-        <v>60</v>
+        <f>PRODUCT(D32:G32)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,12 +1326,14 @@
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
       <c r="G33" s="1">
         <v>5</v>
       </c>
       <c r="H33" s="1">
-        <f>PRODUCT(D33:G33,E33)</f>
+        <f>PRODUCT(D33:G33)</f>
         <v>400</v>
       </c>
     </row>
@@ -1275,13 +1353,15 @@
       <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
       <c r="G34" s="1">
         <v>5</v>
       </c>
       <c r="H34" s="1">
-        <f>PRODUCT(D34:G34,E34)</f>
-        <v>225</v>
+        <f>PRODUCT(D34:G34)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,13 +1380,15 @@
       <c r="E35" s="2">
         <v>5</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
       <c r="G35" s="1">
         <v>5</v>
       </c>
       <c r="H35" s="1">
-        <f>PRODUCT(D35:G35,E35)</f>
-        <v>375</v>
+        <f>PRODUCT(D35:G35)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,13 +1407,15 @@
       <c r="E36" s="2">
         <v>5</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
       <c r="G36" s="1">
         <v>4</v>
       </c>
       <c r="H36" s="1">
-        <f>PRODUCT(D36:G36,E36)</f>
-        <v>400</v>
+        <f>PRODUCT(D36:G36)</f>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,12 +1434,14 @@
       <c r="E37" s="2">
         <v>3</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
       <c r="G37" s="1">
         <v>3</v>
       </c>
       <c r="H37" s="1">
-        <f>PRODUCT(D37:G37,E37)</f>
+        <f>PRODUCT(D37:G37)</f>
         <v>54</v>
       </c>
     </row>
@@ -1375,13 +1461,15 @@
       <c r="E38" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
       <c r="G38" s="1">
         <v>5</v>
       </c>
       <c r="H38" s="1">
-        <f>PRODUCT(D38:G38,E38)</f>
-        <v>225</v>
+        <f>PRODUCT(D38:G38)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,13 +1488,15 @@
       <c r="E39" s="2">
         <v>2</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
       <c r="G39" s="1">
         <v>3</v>
       </c>
       <c r="H39" s="1">
-        <f>PRODUCT(D39:G39,E39)</f>
-        <v>48</v>
+        <f>PRODUCT(D39:G39)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1425,13 +1515,15 @@
       <c r="E40" s="2">
         <v>3</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
       <c r="G40" s="1">
         <v>4</v>
       </c>
       <c r="H40" s="1">
-        <f>PRODUCT(D40:G40,E40)</f>
-        <v>180</v>
+        <f>PRODUCT(D40:G40)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,20 +1542,22 @@
       <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
       <c r="G41" s="1">
         <v>5</v>
       </c>
       <c r="H41" s="1">
-        <f>PRODUCT(D41:G41,E41)</f>
-        <v>100</v>
+        <f>PRODUCT(D41:G41)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="3">
@@ -1475,13 +1569,15 @@
       <c r="E42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
       <c r="G42" s="1">
         <v>5</v>
       </c>
       <c r="H42" s="1">
-        <f>PRODUCT(D42:G42,E42)</f>
-        <v>225</v>
+        <f>PRODUCT(D42:G42)</f>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,12 +1596,14 @@
       <c r="E43" s="2">
         <v>5</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
       <c r="G43" s="1">
         <v>5</v>
       </c>
       <c r="H43" s="1">
-        <f>PRODUCT(D43:G43,E43)</f>
+        <f>PRODUCT(D43:G43)</f>
         <v>250</v>
       </c>
     </row>
@@ -1525,13 +1623,15 @@
       <c r="E44" s="2">
         <v>5</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
       <c r="G44" s="1">
         <v>4</v>
       </c>
       <c r="H44" s="1">
-        <f>PRODUCT(D44:G44,E44)</f>
-        <v>400</v>
+        <f>PRODUCT(D44:G44)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,20 +1650,22 @@
       <c r="E45" s="2">
         <v>4</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
       <c r="G45" s="1">
         <v>5</v>
       </c>
       <c r="H45" s="1">
-        <f>PRODUCT(D45:G45,E45)</f>
-        <v>320</v>
+        <f>PRODUCT(D45:G45)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="3">
@@ -1575,13 +1677,15 @@
       <c r="E46" s="2">
         <v>4</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
       <c r="G46" s="1">
         <v>3</v>
       </c>
       <c r="H46" s="1">
-        <f>PRODUCT(D46:G46,E46)</f>
-        <v>240</v>
+        <f>PRODUCT(D46:G46)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,12 +1704,14 @@
       <c r="E47" s="2">
         <v>3</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
       <c r="G47" s="1">
         <v>5</v>
       </c>
       <c r="H47" s="1">
-        <f>PRODUCT(D47:G47,E47)</f>
+        <f>PRODUCT(D47:G47)</f>
         <v>180</v>
       </c>
     </row>
@@ -1625,13 +1731,15 @@
       <c r="E48" s="2">
         <v>5</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
       <c r="G48" s="1">
         <v>5</v>
       </c>
       <c r="H48" s="1">
-        <f>PRODUCT(D48:G48,E48)</f>
-        <v>625</v>
+        <f>PRODUCT(D48:G48)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1650,13 +1758,15 @@
       <c r="E49" s="2">
         <v>2</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
       <c r="G49" s="1">
         <v>3</v>
       </c>
       <c r="H49" s="1">
-        <f>PRODUCT(D49:G49,E49)</f>
-        <v>48</v>
+        <f>PRODUCT(D49:G49)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,13 +1785,15 @@
       <c r="E50" s="2">
         <v>2</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
       <c r="G50" s="1">
         <v>5</v>
       </c>
       <c r="H50" s="1">
-        <f>PRODUCT(D50:G50,E50)</f>
-        <v>20</v>
+        <f>PRODUCT(D50:G50)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,12 +1812,14 @@
       <c r="E51" s="2">
         <v>2</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
       <c r="G51" s="1">
         <v>3</v>
       </c>
       <c r="H51" s="1">
-        <f>PRODUCT(D51:G51,E51)</f>
+        <f>PRODUCT(D51:G51)</f>
         <v>36</v>
       </c>
     </row>
@@ -1725,13 +1839,15 @@
       <c r="E52" s="2">
         <v>3</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
       <c r="G52" s="1">
         <v>5</v>
       </c>
       <c r="H52" s="1">
-        <f>PRODUCT(D52:G52,E52)</f>
-        <v>180</v>
+        <f>PRODUCT(D52:G52)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,7 +1864,7 @@
       </c>
       <c r="F54">
         <f t="shared" ref="F54:G54" si="0">COUNTIF(F$2:F$52,$C54)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
@@ -1769,7 +1885,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
@@ -1790,7 +1906,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
@@ -1811,7 +1927,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
@@ -1832,7 +1948,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
@@ -1850,7 +1966,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
@@ -1859,7 +1975,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:H52">
-    <sortCondition ref="A8"/>
+    <sortCondition ref="A6"/>
   </sortState>
   <conditionalFormatting sqref="H2:H52">
     <cfRule type="colorScale" priority="1">
